--- a/data/nuc_cell_seg_delivery_20170217/20170210_S01.xlsx
+++ b/data/nuc_cell_seg_delivery_20170217/20170210_S01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minipipeline_results\script_spreadsheet_20170217\20170210_S01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_17_Nuc_Cell_Seg_For_Release_Group_2\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>2017_02_17</t>
   </si>
   <si>
-    <t>\\aibsdata\aics\AssayDevelopment\MicroscopyData\Sue\2017\20170210</t>
-  </si>
-  <si>
     <t>20170210_S01_001.czi</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>\\aibsdata\aics\Microscopy\PRODUCTION\PIPELINE_3_Minipipeline\20170210</t>
   </si>
 </sst>
 </file>
@@ -585,11 +585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:W15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="14" max="14" width="129.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -623,43 +627,43 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
       <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
         <v>77</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>78</v>
-      </c>
-      <c r="W1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -673,46 +677,46 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G2">
         <v>0.28999999999999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
       </c>
       <c r="R2">
         <v>6.5000000000000002E-2</v>
@@ -721,16 +725,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -744,46 +748,46 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G3">
         <v>0.28999999999999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
       </c>
       <c r="R3">
         <v>6.5000000000000002E-2</v>
@@ -792,16 +796,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -815,46 +819,46 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G4">
         <v>0.28999999999999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>45</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>46</v>
       </c>
       <c r="R4">
         <v>6.5000000000000002E-2</v>
@@ -863,16 +867,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -886,46 +890,46 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G5">
         <v>0.28999999999999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
       </c>
       <c r="R5">
         <v>6.5000000000000002E-2</v>
@@ -934,16 +938,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
         <v>47</v>
       </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -957,46 +961,46 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G6">
         <v>0.28999999999999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
         <v>50</v>
       </c>
-      <c r="P6" t="s">
-        <v>51</v>
-      </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R6">
         <v>6.5000000000000002E-2</v>
@@ -1005,16 +1009,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
         <v>50</v>
       </c>
-      <c r="U6" t="s">
-        <v>51</v>
-      </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -1028,46 +1032,46 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G7">
         <v>0.28999999999999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
         <v>52</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>54</v>
       </c>
       <c r="R7">
         <v>6.5000000000000002E-2</v>
@@ -1076,16 +1080,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
         <v>52</v>
       </c>
-      <c r="U7" t="s">
-        <v>53</v>
-      </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1099,46 +1103,46 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G8">
         <v>0.28999999999999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
         <v>55</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>57</v>
       </c>
       <c r="R8">
         <v>6.5000000000000002E-2</v>
@@ -1147,16 +1151,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" t="s">
         <v>55</v>
       </c>
-      <c r="U8" t="s">
-        <v>56</v>
-      </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1170,46 +1174,46 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G9">
         <v>0.28999999999999998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
         <v>58</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>60</v>
       </c>
       <c r="R9">
         <v>6.5000000000000002E-2</v>
@@ -1218,16 +1222,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" t="s">
         <v>58</v>
       </c>
-      <c r="U9" t="s">
-        <v>59</v>
-      </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1241,46 +1245,46 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G10">
         <v>0.28999999999999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
         <v>61</v>
       </c>
-      <c r="P10" t="s">
-        <v>62</v>
-      </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R10">
         <v>6.5000000000000002E-2</v>
@@ -1289,16 +1293,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" t="s">
         <v>61</v>
       </c>
-      <c r="U10" t="s">
-        <v>62</v>
-      </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -1312,46 +1316,46 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G11">
         <v>0.28999999999999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s">
         <v>63</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>64</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>65</v>
       </c>
       <c r="R11">
         <v>6.5000000000000002E-2</v>
@@ -1360,16 +1364,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
         <v>63</v>
       </c>
-      <c r="U11" t="s">
-        <v>64</v>
-      </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -1383,46 +1387,46 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G12">
         <v>0.28999999999999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s">
         <v>66</v>
       </c>
-      <c r="P12" t="s">
-        <v>67</v>
-      </c>
       <c r="Q12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12">
         <v>6.5000000000000002E-2</v>
@@ -1431,16 +1435,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T12" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" t="s">
         <v>66</v>
       </c>
-      <c r="U12" t="s">
-        <v>67</v>
-      </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -1454,46 +1458,46 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G13">
         <v>0.28999999999999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s">
         <v>68</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>70</v>
       </c>
       <c r="R13">
         <v>6.5000000000000002E-2</v>
@@ -1502,16 +1506,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" t="s">
         <v>68</v>
       </c>
-      <c r="U13" t="s">
-        <v>69</v>
-      </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1525,46 +1529,46 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G14">
         <v>0.28999999999999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s">
         <v>71</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>72</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>73</v>
       </c>
       <c r="R14">
         <v>6.5000000000000002E-2</v>
@@ -1573,16 +1577,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" t="s">
         <v>71</v>
       </c>
-      <c r="U14" t="s">
-        <v>72</v>
-      </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1596,46 +1600,46 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>6.5000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G15">
         <v>0.28999999999999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s">
         <v>74</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>75</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>76</v>
       </c>
       <c r="R15">
         <v>6.5000000000000002E-2</v>
@@ -1644,16 +1648,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" t="s">
         <v>74</v>
       </c>
-      <c r="U15" t="s">
-        <v>75</v>
-      </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/nuc_cell_seg_delivery_20170217/20170210_S01.xlsx
+++ b/data/nuc_cell_seg_delivery_20170217/20170210_S01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_17_Nuc_Cell_Seg_For_Release_Group_2\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minipipeline_results\script_spreadsheet_20170217\20170210_S01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>Index</t>
   </si>
@@ -59,6 +59,9 @@
     <t>2017_02_17</t>
   </si>
   <si>
+    <t>\\aibsdata\aics\Microscopy\PRODUCTION\PIPELINE_3_Minipipeline\20170210</t>
+  </si>
+  <si>
     <t>20170210_S01_001.czi</t>
   </si>
   <si>
@@ -137,123 +140,165 @@
     <t>\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_17_Nuc_Cell_Seg_For_Release_Group_2\20170210_S01\nuc_cell_segmentation</t>
   </si>
   <si>
-    <t>20170210_S01_001.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_001.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_001.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_001.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>1;2;5;</t>
   </si>
   <si>
-    <t>20170210_S01_003.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_003.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_001.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_003.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_003.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>2;3;</t>
   </si>
   <si>
-    <t>20170210_S01_004.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_004.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_003.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_004.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_004.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>1;2;3;4;</t>
   </si>
   <si>
-    <t>20170210_S01_005.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_005.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_004.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_005.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_005.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>1;4;</t>
   </si>
   <si>
-    <t>20170210_S01_009.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_009.czi_cellWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_011.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_011.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_005.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_009.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_009.czi_cellWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_009.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_011.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_011.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>1;</t>
   </si>
   <si>
-    <t>20170210_S01_017.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_017.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_011.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_017.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_017.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>3;</t>
   </si>
   <si>
-    <t>20170210_S01_018.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_018.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_017.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_018.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_018.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>1;2;3;4;5;</t>
   </si>
   <si>
-    <t>20170210_S01_019.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_019.czi_cellWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_021.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_021.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_018.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_019.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_019.czi_cellWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_019.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_021.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_021.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>1;3;4;5;</t>
   </si>
   <si>
-    <t>20170210_S01_022.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_022.czi_cellWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_023.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_023.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_021.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_022.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_022.czi_cellWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_022.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_023.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_023.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>2;</t>
   </si>
   <si>
-    <t>20170210_S01_024.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_024.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_023.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_024.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_024.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>1;2;3;</t>
   </si>
   <si>
-    <t>20170210_S01_025.czi_nucWholeIndex.tiff</t>
-  </si>
-  <si>
-    <t>20170210_S01_025.czi_cellWholeIndex.tiff</t>
+    <t>20170210_S01_024.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_025.czi_nucWholeIndexImageScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_025.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
     <t>2;3;5;</t>
   </si>
   <si>
+    <t>20170210_S01_025.czi_nucWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
     <t>outputCellSegWholeSegScaleFilename</t>
   </si>
   <si>
@@ -263,10 +308,49 @@
     <t>structureSegOutputFilename</t>
   </si>
   <si>
+    <t>20170210_S01_001.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>\\aibsdata\aics\Microscopy\PRODUCTION\PIPELINE_3_Minipipeline\20170210</t>
+    <t>20170210_S01_003.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_004.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_005.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_009.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_011.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_017.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_018.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_019.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_021.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_022.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_023.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_024.czi_cellWholeIndexSegScale.tiff</t>
+  </si>
+  <si>
+    <t>20170210_S01_025.czi_cellWholeIndexSegScale.tiff</t>
   </si>
 </sst>
 </file>
@@ -585,15 +669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
-    <col min="14" max="14" width="129.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -627,43 +707,43 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="V1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="W1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -677,10 +757,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>0.108</v>
@@ -698,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>7</v>
@@ -707,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2">
         <v>6.5000000000000002E-2</v>
@@ -725,16 +805,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -748,10 +828,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>0.108</v>
@@ -769,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -778,16 +858,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R3">
         <v>6.5000000000000002E-2</v>
@@ -796,16 +876,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -819,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0.108</v>
@@ -840,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4">
         <v>7</v>
@@ -849,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R4">
         <v>6.5000000000000002E-2</v>
@@ -867,16 +947,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -890,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0.108</v>
@@ -911,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -920,16 +1000,16 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R5">
         <v>6.5000000000000002E-2</v>
@@ -938,16 +1018,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -961,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>0.108</v>
@@ -982,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6">
         <v>7</v>
@@ -991,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R6">
         <v>6.5000000000000002E-2</v>
@@ -1009,16 +1089,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -1032,10 +1112,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>0.108</v>
@@ -1053,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7">
         <v>7</v>
@@ -1062,16 +1142,16 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="R7">
         <v>6.5000000000000002E-2</v>
@@ -1080,16 +1160,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1103,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>0.108</v>
@@ -1124,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -1133,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="R8">
         <v>6.5000000000000002E-2</v>
@@ -1151,16 +1231,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="V8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1174,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>0.108</v>
@@ -1195,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1204,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="R9">
         <v>6.5000000000000002E-2</v>
@@ -1222,16 +1302,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="V9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1245,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>0.108</v>
@@ -1266,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -1275,16 +1355,16 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="R10">
         <v>6.5000000000000002E-2</v>
@@ -1293,16 +1373,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -1316,10 +1396,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0.108</v>
@@ -1337,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -1346,16 +1426,16 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="R11">
         <v>6.5000000000000002E-2</v>
@@ -1364,16 +1444,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="V11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -1387,10 +1467,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>0.108</v>
@@ -1408,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -1417,16 +1497,16 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R12">
         <v>6.5000000000000002E-2</v>
@@ -1435,16 +1515,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="V12" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W12" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -1458,10 +1538,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>0.108</v>
@@ -1479,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -1488,16 +1568,16 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="R13">
         <v>6.5000000000000002E-2</v>
@@ -1506,16 +1586,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="V13" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W13" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1529,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>0.108</v>
@@ -1550,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1559,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R14">
         <v>6.5000000000000002E-2</v>
@@ -1577,16 +1657,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="U14" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="V14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1600,10 +1680,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>0.108</v>
@@ -1621,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -1630,16 +1710,16 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="R15">
         <v>6.5000000000000002E-2</v>
@@ -1648,16 +1728,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T15" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="V15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="W15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
